--- a/RP_TR_integration_Section1.xlsx
+++ b/RP_TR_integration_Section1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D000B9C-85CF-4635-97EB-0DB1AAD0DA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138EBDD9-10BC-420B-9678-C8CED3F8743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="4500" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18350" yWindow="5150" windowWidth="18280" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="545">
   <si>
     <t>path</t>
   </si>
@@ -1754,6 +1754,20 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1781,20 +1795,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1809,10 +1809,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47EEBB1B-A61E-4D98-92AF-70373BD11DEF}" name="Table1" displayName="Table1" ref="A1:I533" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:I533" xr:uid="{47EEBB1B-A61E-4D98-92AF-70373BD11DEF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I533">
-    <sortCondition ref="I1:I533"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47EEBB1B-A61E-4D98-92AF-70373BD11DEF}" name="Table1" displayName="Table1" ref="A1:I513" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:I513" xr:uid="{47EEBB1B-A61E-4D98-92AF-70373BD11DEF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I513">
+    <sortCondition ref="I1:I513"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{025DBC20-28F7-4663-9D27-6A29B10BA9ED}" name="path"/>
@@ -2118,7 +2118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H533"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A497" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -15987,10 +15987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A6564C-DCAD-41F2-9D93-E7279C8E49AE}">
-  <dimension ref="A1:I533"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="F532" sqref="F532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31391,606 +31391,6 @@
         <v>1140.7430721749038</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A514" t="s">
-        <v>82</v>
-      </c>
-      <c r="B514">
-        <v>1.5</v>
-      </c>
-      <c r="C514">
-        <v>34.5</v>
-      </c>
-      <c r="D514">
-        <v>30</v>
-      </c>
-      <c r="E514" t="s">
-        <v>13</v>
-      </c>
-      <c r="F514">
-        <v>12.83296</v>
-      </c>
-      <c r="G514">
-        <v>3735.1455204565959</v>
-      </c>
-      <c r="H514">
-        <v>2588.0744779091392</v>
-      </c>
-      <c r="I514">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1147.0710425474567</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A515" t="s">
-        <v>77</v>
-      </c>
-      <c r="B515">
-        <v>1.5</v>
-      </c>
-      <c r="C515">
-        <v>32.5</v>
-      </c>
-      <c r="D515">
-        <v>15</v>
-      </c>
-      <c r="E515" t="s">
-        <v>11</v>
-      </c>
-      <c r="F515">
-        <v>13.000579999999999</v>
-      </c>
-      <c r="G515">
-        <v>4326.0843475218044</v>
-      </c>
-      <c r="H515">
-        <v>5503.6672279334252</v>
-      </c>
-      <c r="I515">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1177.5828804116209</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A516" t="s">
-        <v>454</v>
-      </c>
-      <c r="B516">
-        <v>2.75</v>
-      </c>
-      <c r="C516">
-        <v>30.5</v>
-      </c>
-      <c r="D516">
-        <v>30</v>
-      </c>
-      <c r="E516" t="s">
-        <v>13</v>
-      </c>
-      <c r="F516">
-        <v>21.875489999999999</v>
-      </c>
-      <c r="G516">
-        <v>474.30713002334647</v>
-      </c>
-      <c r="H516">
-        <v>1655.33464754226</v>
-      </c>
-      <c r="I516">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1181.0275175189136</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A517" t="s">
-        <v>501</v>
-      </c>
-      <c r="B517">
-        <v>3</v>
-      </c>
-      <c r="C517">
-        <v>16.5</v>
-      </c>
-      <c r="D517">
-        <v>15</v>
-      </c>
-      <c r="E517" t="s">
-        <v>11</v>
-      </c>
-      <c r="F517">
-        <v>26.00309</v>
-      </c>
-      <c r="G517">
-        <v>-307.21256431428958</v>
-      </c>
-      <c r="H517">
-        <v>890.84204897604354</v>
-      </c>
-      <c r="I517">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1198.0546132903332</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A518" t="s">
-        <v>538</v>
-      </c>
-      <c r="B518">
-        <v>3</v>
-      </c>
-      <c r="C518">
-        <v>34.5</v>
-      </c>
-      <c r="D518">
-        <v>30</v>
-      </c>
-      <c r="E518" t="s">
-        <v>13</v>
-      </c>
-      <c r="F518">
-        <v>26.00395</v>
-      </c>
-      <c r="G518">
-        <v>228.26728334001581</v>
-      </c>
-      <c r="H518">
-        <v>1444.1088671562709</v>
-      </c>
-      <c r="I518">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1215.841583816255</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A519" t="s">
-        <v>41</v>
-      </c>
-      <c r="B519">
-        <v>1.5</v>
-      </c>
-      <c r="C519">
-        <v>14.5</v>
-      </c>
-      <c r="D519">
-        <v>15</v>
-      </c>
-      <c r="E519" t="s">
-        <v>11</v>
-      </c>
-      <c r="F519">
-        <v>12.622070000000001</v>
-      </c>
-      <c r="G519">
-        <v>1723.7857959672799</v>
-      </c>
-      <c r="H519">
-        <v>498.60002606344119</v>
-      </c>
-      <c r="I519">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1225.1857699038387</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A520" t="s">
-        <v>526</v>
-      </c>
-      <c r="B520">
-        <v>3</v>
-      </c>
-      <c r="C520">
-        <v>28.5</v>
-      </c>
-      <c r="D520">
-        <v>30</v>
-      </c>
-      <c r="E520" t="s">
-        <v>13</v>
-      </c>
-      <c r="F520">
-        <v>26.000299999999999</v>
-      </c>
-      <c r="G520">
-        <v>-4.8153096119265646</v>
-      </c>
-      <c r="H520">
-        <v>1263.870375078594</v>
-      </c>
-      <c r="I520">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1268.6856846905205</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A521" t="s">
-        <v>63</v>
-      </c>
-      <c r="B521">
-        <v>1.5</v>
-      </c>
-      <c r="C521">
-        <v>24.5</v>
-      </c>
-      <c r="D521">
-        <v>45</v>
-      </c>
-      <c r="E521" t="s">
-        <v>15</v>
-      </c>
-      <c r="F521">
-        <v>13.00038</v>
-      </c>
-      <c r="G521">
-        <v>1892.6384600538149</v>
-      </c>
-      <c r="H521">
-        <v>3172.1773496695628</v>
-      </c>
-      <c r="I521">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1279.5388896157478</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A522" t="s">
-        <v>59</v>
-      </c>
-      <c r="B522">
-        <v>1.5</v>
-      </c>
-      <c r="C522">
-        <v>22.5</v>
-      </c>
-      <c r="D522">
-        <v>45</v>
-      </c>
-      <c r="E522" t="s">
-        <v>15</v>
-      </c>
-      <c r="F522">
-        <v>12.04406</v>
-      </c>
-      <c r="G522">
-        <v>1774.6274355416331</v>
-      </c>
-      <c r="H522">
-        <v>3068.3853604452102</v>
-      </c>
-      <c r="I522">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1293.7579249035771</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A523" t="s">
-        <v>86</v>
-      </c>
-      <c r="B523">
-        <v>1.5</v>
-      </c>
-      <c r="C523">
-        <v>35</v>
-      </c>
-      <c r="D523">
-        <v>30</v>
-      </c>
-      <c r="E523" t="s">
-        <v>13</v>
-      </c>
-      <c r="F523">
-        <v>13.00028</v>
-      </c>
-      <c r="G523">
-        <v>3841.902059446702</v>
-      </c>
-      <c r="H523">
-        <v>2538.2969554787851</v>
-      </c>
-      <c r="I523">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1303.6051039679169</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A524" t="s">
-        <v>67</v>
-      </c>
-      <c r="B524">
-        <v>1.5</v>
-      </c>
-      <c r="C524">
-        <v>26.5</v>
-      </c>
-      <c r="D524">
-        <v>45</v>
-      </c>
-      <c r="E524" t="s">
-        <v>15</v>
-      </c>
-      <c r="F524">
-        <v>13.000249999999999</v>
-      </c>
-      <c r="G524">
-        <v>1982.1960050997129</v>
-      </c>
-      <c r="H524">
-        <v>3287.2520114086478</v>
-      </c>
-      <c r="I524">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1305.0560063089349</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A525" t="s">
-        <v>79</v>
-      </c>
-      <c r="B525">
-        <v>1.5</v>
-      </c>
-      <c r="C525">
-        <v>32.5</v>
-      </c>
-      <c r="D525">
-        <v>45</v>
-      </c>
-      <c r="E525" t="s">
-        <v>15</v>
-      </c>
-      <c r="F525">
-        <v>12.936170000000001</v>
-      </c>
-      <c r="G525">
-        <v>2498.1631515204631</v>
-      </c>
-      <c r="H525">
-        <v>3804.7005630906192</v>
-      </c>
-      <c r="I525">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1306.5374115701561</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A526" t="s">
-        <v>71</v>
-      </c>
-      <c r="B526">
-        <v>1.5</v>
-      </c>
-      <c r="C526">
-        <v>28.5</v>
-      </c>
-      <c r="D526">
-        <v>45</v>
-      </c>
-      <c r="E526" t="s">
-        <v>15</v>
-      </c>
-      <c r="F526">
-        <v>13.00202</v>
-      </c>
-      <c r="G526">
-        <v>2099.1709107050879</v>
-      </c>
-      <c r="H526">
-        <v>3414.3338103965971</v>
-      </c>
-      <c r="I526">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1315.1628996915092</v>
-      </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A527" t="s">
-        <v>75</v>
-      </c>
-      <c r="B527">
-        <v>1.5</v>
-      </c>
-      <c r="C527">
-        <v>30.5</v>
-      </c>
-      <c r="D527">
-        <v>45</v>
-      </c>
-      <c r="E527" t="s">
-        <v>15</v>
-      </c>
-      <c r="F527">
-        <v>13.000120000000001</v>
-      </c>
-      <c r="G527">
-        <v>2261.1337337790969</v>
-      </c>
-      <c r="H527">
-        <v>3584.7470424075382</v>
-      </c>
-      <c r="I527">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1323.6133086284412</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A528" t="s">
-        <v>87</v>
-      </c>
-      <c r="B528">
-        <v>1.5</v>
-      </c>
-      <c r="C528">
-        <v>35</v>
-      </c>
-      <c r="D528">
-        <v>45</v>
-      </c>
-      <c r="E528" t="s">
-        <v>15</v>
-      </c>
-      <c r="F528">
-        <v>12.600160000000001</v>
-      </c>
-      <c r="G528">
-        <v>2771.4578143504718</v>
-      </c>
-      <c r="H528">
-        <v>4124.0061494778856</v>
-      </c>
-      <c r="I528">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1352.5483351274138</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A529" t="s">
-        <v>83</v>
-      </c>
-      <c r="B529">
-        <v>1.5</v>
-      </c>
-      <c r="C529">
-        <v>34.5</v>
-      </c>
-      <c r="D529">
-        <v>45</v>
-      </c>
-      <c r="E529" t="s">
-        <v>15</v>
-      </c>
-      <c r="F529">
-        <v>13.001150000000001</v>
-      </c>
-      <c r="G529">
-        <v>2681.9544755021948</v>
-      </c>
-      <c r="H529">
-        <v>4052.5711072564332</v>
-      </c>
-      <c r="I529">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1370.6166317542384</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A530" t="s">
-        <v>81</v>
-      </c>
-      <c r="B530">
-        <v>1.5</v>
-      </c>
-      <c r="C530">
-        <v>34.5</v>
-      </c>
-      <c r="D530">
-        <v>15</v>
-      </c>
-      <c r="E530" t="s">
-        <v>11</v>
-      </c>
-      <c r="F530">
-        <v>12.88064</v>
-      </c>
-      <c r="G530">
-        <v>4646.8209381234083</v>
-      </c>
-      <c r="H530">
-        <v>6099.5246826095618</v>
-      </c>
-      <c r="I530">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1452.7037444861535</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A531" t="s">
-        <v>85</v>
-      </c>
-      <c r="B531">
-        <v>1.5</v>
-      </c>
-      <c r="C531">
-        <v>35</v>
-      </c>
-      <c r="D531">
-        <v>15</v>
-      </c>
-      <c r="E531" t="s">
-        <v>11</v>
-      </c>
-      <c r="F531">
-        <v>13.00028</v>
-      </c>
-      <c r="G531">
-        <v>4743.4732966293786</v>
-      </c>
-      <c r="H531">
-        <v>6246.7943699976677</v>
-      </c>
-      <c r="I531">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1503.321073368289</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A532" t="s">
-        <v>530</v>
-      </c>
-      <c r="B532">
-        <v>3</v>
-      </c>
-      <c r="C532">
-        <v>30.5</v>
-      </c>
-      <c r="D532">
-        <v>30</v>
-      </c>
-      <c r="E532" t="s">
-        <v>13</v>
-      </c>
-      <c r="F532">
-        <v>26.003820000000001</v>
-      </c>
-      <c r="G532">
-        <v>73.80204045498931</v>
-      </c>
-      <c r="H532">
-        <v>1579.7365870207809</v>
-      </c>
-      <c r="I532">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1505.9345465657916</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A533" t="s">
-        <v>534</v>
-      </c>
-      <c r="B533">
-        <v>3</v>
-      </c>
-      <c r="C533">
-        <v>32.5</v>
-      </c>
-      <c r="D533">
-        <v>30</v>
-      </c>
-      <c r="E533" t="s">
-        <v>13</v>
-      </c>
-      <c r="F533">
-        <v>26.002790000000001</v>
-      </c>
-      <c r="G533">
-        <v>148.8377912945015</v>
-      </c>
-      <c r="H533">
-        <v>1696.8283855867301</v>
-      </c>
-      <c r="I533">
-        <f>ABS(Table1[[#This Row],[num_integration]]-Table1[[#This Row],[ml_integration]])</f>
-        <v>1547.9905942922285</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
